--- a/LoadTesting1.xlsx
+++ b/LoadTesting1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohini\Documents\GitHub\Rohini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60F482-3D8F-45FC-9B63-0FA62079EE9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AFC8B4-0EC1-4F5C-A44B-D33F6905E50B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="2745" windowWidth="15225" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="363">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F121" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="H136" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140:J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,7 +3663,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>327</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
         <v>18</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>334</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>179</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>112</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>116</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>185</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
         <v>120</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>341</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F139" t="s">
         <v>18</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>348</v>
       </c>
@@ -3864,10 +3864,13 @@
         <v>352</v>
       </c>
       <c r="I140" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="J140" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
         <v>179</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
         <v>112</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>116</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>185</v>
       </c>
